--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Edema macular diabético.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Edema macular diabético.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23.34230156397011</v>
+        <v>23.331730174041</v>
       </c>
       <c r="B2" t="n">
-        <v>19.71032502654153</v>
+        <v>19.69795564090124</v>
       </c>
       <c r="C2" t="n">
-        <v>27.08555943845744</v>
+        <v>27.10557193995341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18.85598010589432</v>
+        <v>19.09035096275557</v>
       </c>
       <c r="B3" t="n">
-        <v>11.84331231499929</v>
+        <v>11.89577523062924</v>
       </c>
       <c r="C3" t="n">
-        <v>27.08791872169368</v>
+        <v>27.47572503725279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.14499205536796</v>
+        <v>20.07239925893111</v>
       </c>
       <c r="B4" t="n">
-        <v>15.00920844284376</v>
+        <v>14.79264873210985</v>
       </c>
       <c r="C4" t="n">
-        <v>25.52701904387688</v>
+        <v>25.496635695391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23.30491460551692</v>
+        <v>23.4104594049059</v>
       </c>
       <c r="B5" t="n">
-        <v>16.16736639432184</v>
+        <v>16.30587851826161</v>
       </c>
       <c r="C5" t="n">
-        <v>30.92229514311495</v>
+        <v>31.10660148652546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27.34888956359381</v>
+        <v>28.01060954458787</v>
       </c>
       <c r="B6" t="n">
-        <v>24.06920110575279</v>
+        <v>24.11831176849653</v>
       </c>
       <c r="C6" t="n">
-        <v>32.10468813600869</v>
+        <v>32.15271988984622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20.82986863201088</v>
+        <v>20.80394973453817</v>
       </c>
       <c r="B7" t="n">
-        <v>18.23551544665894</v>
+        <v>18.23968215365121</v>
       </c>
       <c r="C7" t="n">
-        <v>23.84239403181864</v>
+        <v>23.79748862334326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.35511499822925</v>
+        <v>10.36346117576603</v>
       </c>
       <c r="B8" t="n">
-        <v>8.088539610173189</v>
+        <v>8.076723119444825</v>
       </c>
       <c r="C8" t="n">
-        <v>13.50912302378588</v>
+        <v>13.50103445939163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.61260561405435</v>
+        <v>25.92323967699945</v>
       </c>
       <c r="B9" t="n">
-        <v>22.33023583774294</v>
+        <v>22.67097920063459</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6840442583667</v>
+        <v>29.50983921648628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.88524116116477</v>
+        <v>10.87612183307555</v>
       </c>
       <c r="B10" t="n">
-        <v>8.141181018814812</v>
+        <v>8.342057663979126</v>
       </c>
       <c r="C10" t="n">
-        <v>14.54550827732354</v>
+        <v>14.51922200463839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.60680141741464</v>
+        <v>18.62933805463966</v>
       </c>
       <c r="B11" t="n">
-        <v>14.64183438208482</v>
+        <v>14.60070701321043</v>
       </c>
       <c r="C11" t="n">
-        <v>22.39156397234933</v>
+        <v>22.75305904684553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30.81490080868612</v>
+        <v>30.64849035416089</v>
       </c>
       <c r="B12" t="n">
-        <v>27.5823961100892</v>
+        <v>27.30595746250612</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1420094237933</v>
+        <v>34.66801265088516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.86008474639109</v>
+        <v>12.83439254317619</v>
       </c>
       <c r="B13" t="n">
-        <v>9.61570204103181</v>
+        <v>9.610132574885627</v>
       </c>
       <c r="C13" t="n">
-        <v>17.58654764408135</v>
+        <v>17.68498909169671</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.98461262173077</v>
+        <v>14.98044654714227</v>
       </c>
       <c r="B14" t="n">
-        <v>11.45666153462692</v>
+        <v>11.36310349756332</v>
       </c>
       <c r="C14" t="n">
-        <v>19.25092759897456</v>
+        <v>19.31660022161913</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>27.72775085622936</v>
+        <v>27.76868222476446</v>
       </c>
       <c r="B15" t="n">
-        <v>19.77532670285168</v>
+        <v>19.66382510759768</v>
       </c>
       <c r="C15" t="n">
-        <v>36.42231111140352</v>
+        <v>36.79170090135661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27.3197264336892</v>
+        <v>27.99981108743031</v>
       </c>
       <c r="B16" t="n">
-        <v>24.05733172885323</v>
+        <v>24.12276784547966</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45668683923765</v>
+        <v>32.13037533926538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30.71480684941878</v>
+        <v>30.57939235983462</v>
       </c>
       <c r="B17" t="n">
-        <v>27.47822484635146</v>
+        <v>27.19472622032663</v>
       </c>
       <c r="C17" t="n">
-        <v>33.92494078823923</v>
+        <v>34.29945531469322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20.14781875596045</v>
+        <v>20.06964453289743</v>
       </c>
       <c r="B18" t="n">
-        <v>15.00920844284376</v>
+        <v>14.79750830167271</v>
       </c>
       <c r="C18" t="n">
-        <v>25.34731052811363</v>
+        <v>25.45604483392655</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.75428715213138</v>
+        <v>19.64096454265627</v>
       </c>
       <c r="B19" t="n">
-        <v>15.23788225324453</v>
+        <v>15.19829840041572</v>
       </c>
       <c r="C19" t="n">
-        <v>25.45073719492828</v>
+        <v>25.39382700456649</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31.74808964747189</v>
+        <v>32.1011149354301</v>
       </c>
       <c r="B20" t="n">
-        <v>27.66401964181239</v>
+        <v>27.69734033597354</v>
       </c>
       <c r="C20" t="n">
-        <v>36.17328014623489</v>
+        <v>36.12050282748923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>29.32239997000072</v>
+        <v>29.01838726366836</v>
       </c>
       <c r="B21" t="n">
-        <v>22.89920718349033</v>
+        <v>22.6530271988896</v>
       </c>
       <c r="C21" t="n">
-        <v>35.98750611547404</v>
+        <v>35.60990629179418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11.13219235103054</v>
+        <v>11.16923821505657</v>
       </c>
       <c r="B22" t="n">
-        <v>8.397705641759629</v>
+        <v>8.354055180567201</v>
       </c>
       <c r="C22" t="n">
-        <v>14.94792139270588</v>
+        <v>14.9053032184349</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>29.54843280813055</v>
+        <v>29.35753887327363</v>
       </c>
       <c r="B23" t="n">
-        <v>22.06053763260003</v>
+        <v>21.82922772245666</v>
       </c>
       <c r="C23" t="n">
-        <v>38.02033582452292</v>
+        <v>38.57332591782405</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>27.3197264336892</v>
+        <v>27.9999640378042</v>
       </c>
       <c r="B24" t="n">
-        <v>24.06822410330505</v>
+        <v>24.12758284979184</v>
       </c>
       <c r="C24" t="n">
-        <v>32.30733128949231</v>
+        <v>32.13889450137722</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23.33845894812205</v>
+        <v>23.53221420870001</v>
       </c>
       <c r="B25" t="n">
-        <v>20.21659125311658</v>
+        <v>19.96393819573313</v>
       </c>
       <c r="C25" t="n">
-        <v>27.43952384464714</v>
+        <v>27.23767151544986</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>29.39643901871827</v>
+        <v>29.14708631828314</v>
       </c>
       <c r="B26" t="n">
-        <v>23.24551349872316</v>
+        <v>23.64124173484163</v>
       </c>
       <c r="C26" t="n">
-        <v>36.01750068396326</v>
+        <v>35.92087925821886</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13.39989123966056</v>
+        <v>13.34608248747216</v>
       </c>
       <c r="B27" t="n">
-        <v>9.623821972768965</v>
+        <v>9.59038717704694</v>
       </c>
       <c r="C27" t="n">
-        <v>18.51668627996679</v>
+        <v>18.55369101761913</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>22.25206136933894</v>
+        <v>22.18725896429212</v>
       </c>
       <c r="B28" t="n">
-        <v>19.26076249466722</v>
+        <v>19.26562367104054</v>
       </c>
       <c r="C28" t="n">
-        <v>25.74107381802674</v>
+        <v>25.66360521339153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30.69948009267335</v>
+        <v>30.55309994573313</v>
       </c>
       <c r="B29" t="n">
-        <v>22.33748952990268</v>
+        <v>22.42835031634755</v>
       </c>
       <c r="C29" t="n">
-        <v>39.92245922690022</v>
+        <v>40.01529550083274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28.98011923921179</v>
+        <v>28.68949159603353</v>
       </c>
       <c r="B30" t="n">
-        <v>25.72021480219019</v>
+        <v>25.46526568297984</v>
       </c>
       <c r="C30" t="n">
-        <v>32.18246049406001</v>
+        <v>32.21426435698041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14.49199479347182</v>
+        <v>14.46468687374846</v>
       </c>
       <c r="B31" t="n">
-        <v>11.20647099114256</v>
+        <v>11.19214214041788</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40770178958516</v>
+        <v>18.41367262197492</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.97435323615196</v>
+        <v>11.8958219074782</v>
       </c>
       <c r="B32" t="n">
-        <v>9.19110959189597</v>
+        <v>9.170713061542362</v>
       </c>
       <c r="C32" t="n">
-        <v>15.58450808568704</v>
+        <v>15.56046125017654</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14.98207950996962</v>
+        <v>14.97795683639712</v>
       </c>
       <c r="B33" t="n">
-        <v>11.56070404012931</v>
+        <v>11.48193882820627</v>
       </c>
       <c r="C33" t="n">
-        <v>19.29978916547209</v>
+        <v>19.37914549553492</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>26.83975237591277</v>
+        <v>26.83426623911475</v>
       </c>
       <c r="B34" t="n">
-        <v>21.82068384115897</v>
+        <v>21.95319444783581</v>
       </c>
       <c r="C34" t="n">
-        <v>31.96301151626485</v>
+        <v>32.08434856313949</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>29.65958418760249</v>
+        <v>30.04835336739003</v>
       </c>
       <c r="B35" t="n">
-        <v>25.84569006805043</v>
+        <v>25.91168828310794</v>
       </c>
       <c r="C35" t="n">
-        <v>34.2530660038025</v>
+        <v>33.99015302758899</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20.7936166618867</v>
+        <v>20.7603942618903</v>
       </c>
       <c r="B36" t="n">
-        <v>18.21228470158309</v>
+        <v>18.17282895325192</v>
       </c>
       <c r="C36" t="n">
-        <v>23.74216789353924</v>
+        <v>23.61627565627834</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>31.55021620065931</v>
+        <v>31.46673017730801</v>
       </c>
       <c r="B37" t="n">
-        <v>25.5422357192504</v>
+        <v>25.15581067705905</v>
       </c>
       <c r="C37" t="n">
-        <v>37.81831962347231</v>
+        <v>37.66974328913387</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.56899527798362</v>
+        <v>15.67166887978145</v>
       </c>
       <c r="B38" t="n">
-        <v>11.65084618155701</v>
+        <v>11.80516932687377</v>
       </c>
       <c r="C38" t="n">
-        <v>21.1267209286153</v>
+        <v>21.08556443863539</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>32.25855809343341</v>
+        <v>31.92965902057797</v>
       </c>
       <c r="B39" t="n">
-        <v>28.85483807168395</v>
+        <v>28.4956885176541</v>
       </c>
       <c r="C39" t="n">
-        <v>35.54045401651417</v>
+        <v>36.04730120384583</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24.70730638492688</v>
+        <v>24.46927609832191</v>
       </c>
       <c r="B40" t="n">
-        <v>18.68618440167433</v>
+        <v>18.24452766784713</v>
       </c>
       <c r="C40" t="n">
-        <v>30.93446960033236</v>
+        <v>30.20113101641518</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19.25589082474962</v>
+        <v>19.31537950988023</v>
       </c>
       <c r="B41" t="n">
-        <v>16.87754750448302</v>
+        <v>16.94033284516921</v>
       </c>
       <c r="C41" t="n">
-        <v>21.79881132871123</v>
+        <v>21.8549626258784</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19.15256891256204</v>
+        <v>19.16321496394614</v>
       </c>
       <c r="B42" t="n">
-        <v>15.02964109768911</v>
+        <v>15.03954922391687</v>
       </c>
       <c r="C42" t="n">
-        <v>24.07714279744001</v>
+        <v>24.09326640239387</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>29.00041228100882</v>
+        <v>28.70884668007166</v>
       </c>
       <c r="B43" t="n">
-        <v>25.6601480529339</v>
+        <v>25.46808689508625</v>
       </c>
       <c r="C43" t="n">
-        <v>32.1700902767914</v>
+        <v>32.25410159210425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16.13516565969557</v>
+        <v>16.130458118752</v>
       </c>
       <c r="B44" t="n">
-        <v>13.52442945671865</v>
+        <v>13.49653805135677</v>
       </c>
       <c r="C44" t="n">
-        <v>19.31811172906612</v>
+        <v>19.29311192974283</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20.15982368671148</v>
+        <v>20.10379110110047</v>
       </c>
       <c r="B45" t="n">
-        <v>15.54160648938862</v>
+        <v>15.48587735590412</v>
       </c>
       <c r="C45" t="n">
-        <v>25.86622695976955</v>
+        <v>25.82402505092682</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14.00652923499823</v>
+        <v>13.98828085632986</v>
       </c>
       <c r="B46" t="n">
-        <v>11.05330993160118</v>
+        <v>11.10194470332602</v>
       </c>
       <c r="C46" t="n">
-        <v>17.52166865653442</v>
+        <v>17.45433776624914</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11.45451373521436</v>
+        <v>11.44448969684385</v>
       </c>
       <c r="B47" t="n">
-        <v>8.399355073427941</v>
+        <v>8.322700831999505</v>
       </c>
       <c r="C47" t="n">
-        <v>15.61823310574459</v>
+        <v>15.716800806695</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>30.74292643905083</v>
+        <v>30.589620843428</v>
       </c>
       <c r="B48" t="n">
-        <v>27.53821879057206</v>
+        <v>27.21309293626852</v>
       </c>
       <c r="C48" t="n">
-        <v>34.16176785659709</v>
+        <v>34.5676016384662</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.42698093002962</v>
+        <v>22.43509686776643</v>
       </c>
       <c r="B49" t="n">
-        <v>17.39034264410013</v>
+        <v>17.18808548051937</v>
       </c>
       <c r="C49" t="n">
-        <v>28.16014652894941</v>
+        <v>28.27525548320042</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>31.65965497313575</v>
+        <v>31.41082620535865</v>
       </c>
       <c r="B50" t="n">
-        <v>25.38192616201313</v>
+        <v>25.040356390542</v>
       </c>
       <c r="C50" t="n">
-        <v>37.74515751487186</v>
+        <v>37.7255636678384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18.85754421935863</v>
+        <v>19.00326048169884</v>
       </c>
       <c r="B51" t="n">
-        <v>11.77352581991614</v>
+        <v>11.78705100312315</v>
       </c>
       <c r="C51" t="n">
-        <v>27.12157835790362</v>
+        <v>27.38008492419764</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13.27130442629967</v>
+        <v>13.27428428927199</v>
       </c>
       <c r="B52" t="n">
-        <v>10.70943834495784</v>
+        <v>10.68367372365218</v>
       </c>
       <c r="C52" t="n">
-        <v>16.32444719266024</v>
+        <v>16.37041806941615</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>32.21637027218767</v>
+        <v>31.79143274325667</v>
       </c>
       <c r="B53" t="n">
-        <v>28.72780873532789</v>
+        <v>28.35170953365126</v>
       </c>
       <c r="C53" t="n">
-        <v>35.4407739554213</v>
+        <v>35.83479056561359</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27.72775085622936</v>
+        <v>27.73767226895392</v>
       </c>
       <c r="B54" t="n">
-        <v>19.77129557061668</v>
+        <v>19.61006759503502</v>
       </c>
       <c r="C54" t="n">
-        <v>36.46614239732291</v>
+        <v>36.79254696320983</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>29.34075598258254</v>
+        <v>28.95715691085401</v>
       </c>
       <c r="B55" t="n">
-        <v>22.91607791259447</v>
+        <v>22.67971830459702</v>
       </c>
       <c r="C55" t="n">
-        <v>35.9933897558174</v>
+        <v>35.48520453683066</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>14.45277625824322</v>
+        <v>14.45759393959737</v>
       </c>
       <c r="B56" t="n">
-        <v>11.19484693141974</v>
+        <v>11.2007105501913</v>
       </c>
       <c r="C56" t="n">
-        <v>18.44310176259557</v>
+        <v>18.36482559777452</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.96677279927791</v>
+        <v>11.8958219074782</v>
       </c>
       <c r="B57" t="n">
-        <v>9.187730214856369</v>
+        <v>9.170713061542362</v>
       </c>
       <c r="C57" t="n">
-        <v>15.58383616026071</v>
+        <v>15.56046125017654</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31.54100130411155</v>
+        <v>31.43014321933036</v>
       </c>
       <c r="B58" t="n">
-        <v>25.58481017060493</v>
+        <v>25.46212102771626</v>
       </c>
       <c r="C58" t="n">
-        <v>37.83866212787557</v>
+        <v>37.90037748837597</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17.8989471884866</v>
+        <v>17.92165237797689</v>
       </c>
       <c r="B59" t="n">
-        <v>14.5915553978538</v>
+        <v>14.50031589412157</v>
       </c>
       <c r="C59" t="n">
-        <v>22.23210484156158</v>
+        <v>22.13219804374561</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29.84743943054939</v>
+        <v>29.8114479868593</v>
       </c>
       <c r="B60" t="n">
-        <v>21.84182168771547</v>
+        <v>21.80754196971159</v>
       </c>
       <c r="C60" t="n">
-        <v>37.90037806785438</v>
+        <v>38.90242099318785</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15.1502980911228</v>
+        <v>15.10797538264709</v>
       </c>
       <c r="B61" t="n">
-        <v>11.60612847102133</v>
+        <v>11.57533191122437</v>
       </c>
       <c r="C61" t="n">
-        <v>19.9260763124909</v>
+        <v>19.90424456360322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18.60946722914903</v>
+        <v>18.64533292504597</v>
       </c>
       <c r="B62" t="n">
-        <v>14.61403567685195</v>
+        <v>14.61556212902492</v>
       </c>
       <c r="C62" t="n">
-        <v>22.38241173661033</v>
+        <v>22.77018461058528</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.77940289838513</v>
+        <v>15.80767971967518</v>
       </c>
       <c r="B63" t="n">
-        <v>11.79707188421756</v>
+        <v>11.71119395714268</v>
       </c>
       <c r="C63" t="n">
-        <v>21.23329490538301</v>
+        <v>21.18988221180542</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>29.75501070663098</v>
+        <v>29.73690682918778</v>
       </c>
       <c r="B64" t="n">
-        <v>21.83893202704665</v>
+        <v>21.80445966499818</v>
       </c>
       <c r="C64" t="n">
-        <v>37.86853903720303</v>
+        <v>38.98847222046594</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.44004196415327</v>
+        <v>11.44041430655556</v>
       </c>
       <c r="B65" t="n">
-        <v>8.96970764909908</v>
+        <v>8.9180167762152</v>
       </c>
       <c r="C65" t="n">
-        <v>14.34209315066861</v>
+        <v>14.30330386403321</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>25.48545620416399</v>
+        <v>25.48822261905331</v>
       </c>
       <c r="B66" t="n">
-        <v>21.19819528844294</v>
+        <v>21.1597269986093</v>
       </c>
       <c r="C66" t="n">
-        <v>30.53344427933813</v>
+        <v>30.57892666049671</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>24.5324908322911</v>
+        <v>24.49821204508587</v>
       </c>
       <c r="B67" t="n">
-        <v>20.75150642702652</v>
+        <v>20.66559853120764</v>
       </c>
       <c r="C67" t="n">
-        <v>28.57474734930728</v>
+        <v>28.50937072781771</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>27.13939281676885</v>
+        <v>26.94463322395677</v>
       </c>
       <c r="B68" t="n">
-        <v>21.04796346834414</v>
+        <v>21.23946488654743</v>
       </c>
       <c r="C68" t="n">
-        <v>32.90666584383128</v>
+        <v>32.89961661937461</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.44301120648795</v>
+        <v>11.44316534284396</v>
       </c>
       <c r="B69" t="n">
-        <v>8.449803519840231</v>
+        <v>8.543769693083632</v>
       </c>
       <c r="C69" t="n">
-        <v>15.62829061042109</v>
+        <v>15.70122042279455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24.703993061489</v>
+        <v>24.42920459818092</v>
       </c>
       <c r="B70" t="n">
-        <v>18.7317319020605</v>
+        <v>18.5768688971132</v>
       </c>
       <c r="C70" t="n">
-        <v>31.0992832719799</v>
+        <v>30.93718498362488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21.18060788696403</v>
+        <v>21.16171899170495</v>
       </c>
       <c r="B71" t="n">
-        <v>18.68533296792521</v>
+        <v>18.86586499709033</v>
       </c>
       <c r="C71" t="n">
-        <v>23.8130498724058</v>
+        <v>23.85741424371978</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25.28269000306528</v>
+        <v>25.049243825261</v>
       </c>
       <c r="B72" t="n">
-        <v>22.38686410889681</v>
+        <v>22.24693996848086</v>
       </c>
       <c r="C72" t="n">
-        <v>28.21059561127478</v>
+        <v>28.13935511120514</v>
       </c>
     </row>
   </sheetData>
